--- a/data/3.meta_data/basic_info/25_09_01_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_09_01_basic_info.xlsx
@@ -650,7 +650,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
